--- a/data/trans_orig/POLIPATOLOGIA_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>73662</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58294</v>
+        <v>59041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91964</v>
+        <v>91956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1554779994875614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1230419696980645</v>
+        <v>0.1246170632443069</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1941075864391105</v>
+        <v>0.1940910935203461</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -765,19 +765,19 @@
         <v>68083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54536</v>
+        <v>54820</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83522</v>
+        <v>83926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.222000109492259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1778270984783236</v>
+        <v>0.1787521286356978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2723414892923944</v>
+        <v>0.2736604678607553</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -786,19 +786,19 @@
         <v>141745</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>121360</v>
+        <v>121956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165435</v>
+        <v>164683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1816178520580965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1554987376332551</v>
+        <v>0.1562617243735245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2119720085162954</v>
+        <v>0.2110084286080446</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>400114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381812</v>
+        <v>381820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415482</v>
+        <v>414735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8445220005124385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8058924135608894</v>
+        <v>0.8059089064796539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8769580303019354</v>
+        <v>0.8753829367556929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -836,19 +836,19 @@
         <v>238597</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223158</v>
+        <v>222754</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>252144</v>
+        <v>251860</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.777999890507741</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7276585107076056</v>
+        <v>0.7263395321392447</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8221729015216764</v>
+        <v>0.8212478713643023</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>616</v>
@@ -857,19 +857,19 @@
         <v>638712</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615022</v>
+        <v>615774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>659097</v>
+        <v>658501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8183821479419034</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7880279914837045</v>
+        <v>0.7889915713919554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8445012623667447</v>
+        <v>0.8437382756264755</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>54890</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42419</v>
+        <v>42341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69340</v>
+        <v>69306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1495909494589614</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1156034048609173</v>
+        <v>0.1153902396695936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.188970988115145</v>
+        <v>0.1888782694558211</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -982,19 +982,19 @@
         <v>91623</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75523</v>
+        <v>76422</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108950</v>
+        <v>111238</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2463866483767622</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2030916904411161</v>
+        <v>0.2055105676831738</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2929828121840237</v>
+        <v>0.2991349393300661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -1003,19 +1003,19 @@
         <v>146513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125319</v>
+        <v>125562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169008</v>
+        <v>168794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.198311804927231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.169625293983796</v>
+        <v>0.1699542834461483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2287607395678684</v>
+        <v>0.2284714578858201</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>312044</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>297594</v>
+        <v>297628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>324515</v>
+        <v>324593</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8504090505410385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.811029011884855</v>
+        <v>0.8111217305441795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8843965951390826</v>
+        <v>0.8846097603304066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>275</v>
@@ -1053,19 +1053,19 @@
         <v>280242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262915</v>
+        <v>260627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>296342</v>
+        <v>295443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7536133516232378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7070171878159759</v>
+        <v>0.7008650606699338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7969083095588838</v>
+        <v>0.794489432316826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>568</v>
@@ -1074,19 +1074,19 @@
         <v>592286</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>569791</v>
+        <v>570005</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>613480</v>
+        <v>613237</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.801688195072769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7712392604321319</v>
+        <v>0.7715285421141799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.830374706016204</v>
+        <v>0.8300457165538518</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>122446</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>104565</v>
+        <v>103814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143524</v>
+        <v>145486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2257535966649062</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.192785582652164</v>
+        <v>0.1914019144285518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2646136394718363</v>
+        <v>0.2682326748378593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1199,19 +1199,19 @@
         <v>55910</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43699</v>
+        <v>42899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68914</v>
+        <v>67677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3332288577929595</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2604518295324275</v>
+        <v>0.2556815675948375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4107340886091053</v>
+        <v>0.4033636475576644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -1220,19 +1220,19 @@
         <v>178356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156248</v>
+        <v>156095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>201248</v>
+        <v>203007</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2511452337267052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2200149775710045</v>
+        <v>0.2197992868899133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2833801491866375</v>
+        <v>0.2858570887680315</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>419943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398865</v>
+        <v>396903</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>437824</v>
+        <v>438575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7742464033350939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7353863605281638</v>
+        <v>0.7317673251621407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8072144173478361</v>
+        <v>0.8085980855714482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -1270,19 +1270,19 @@
         <v>111872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98868</v>
+        <v>100105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124083</v>
+        <v>124883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6667711422070406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5892659113908947</v>
+        <v>0.5966363524423357</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7395481704675722</v>
+        <v>0.7443184324051627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>518</v>
@@ -1291,19 +1291,19 @@
         <v>531815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>508923</v>
+        <v>507164</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>553923</v>
+        <v>554076</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7488547662732948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7166198508133624</v>
+        <v>0.7141429112319684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7799850224289955</v>
+        <v>0.7802007131100868</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>312197</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>281312</v>
+        <v>284313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>342197</v>
+        <v>343102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2521107677216065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2271697263514981</v>
+        <v>0.2295930864286569</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2763367395754143</v>
+        <v>0.2770673022804868</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -1416,19 +1416,19 @@
         <v>205456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>182895</v>
+        <v>182820</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>231872</v>
+        <v>228902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2876384213720658</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2560532010969789</v>
+        <v>0.2559485626360678</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3246206934246372</v>
+        <v>0.3204629983164697</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>530</v>
@@ -1437,19 +1437,19 @@
         <v>517653</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>477926</v>
+        <v>483102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>556346</v>
+        <v>558642</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2651070933350896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2447611654778456</v>
+        <v>0.2474124132594625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.284922870612608</v>
+        <v>0.2860984590243743</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>926137</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>896137</v>
+        <v>895232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>957022</v>
+        <v>954021</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7478892322783935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7236632604245856</v>
+        <v>0.7229326977195132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.772830273648502</v>
+        <v>0.7704069135713432</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>488</v>
@@ -1487,19 +1487,19 @@
         <v>508829</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482413</v>
+        <v>485383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>531390</v>
+        <v>531465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7123615786279343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6753793065753627</v>
+        <v>0.67953700168353</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.743946798903021</v>
+        <v>0.7440514373639322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1388</v>
@@ -1508,19 +1508,19 @@
         <v>1434967</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1396274</v>
+        <v>1393978</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1474694</v>
+        <v>1469518</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7348929066649105</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7150771293873921</v>
+        <v>0.7139015409756257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7552388345221545</v>
+        <v>0.7525875867405375</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>74609</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60613</v>
+        <v>59989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90183</v>
+        <v>90577</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2128323493740417</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1729054862417566</v>
+        <v>0.1711265732717764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2572571940144192</v>
+        <v>0.2583821950557019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -1633,19 +1633,19 @@
         <v>195167</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>172340</v>
+        <v>172800</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217501</v>
+        <v>220464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3431502917748323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3030140437774245</v>
+        <v>0.3038234614942955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3824181764794973</v>
+        <v>0.3876268652344151</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>259</v>
@@ -1654,19 +1654,19 @@
         <v>269777</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241982</v>
+        <v>240921</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>298850</v>
+        <v>298805</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2934567335304754</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.263222592538198</v>
+        <v>0.2620677243693114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3250813442713318</v>
+        <v>0.3250333535991273</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>275946</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>260372</v>
+        <v>259978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>289942</v>
+        <v>290566</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7871676506259583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.742742805985581</v>
+        <v>0.7416178049442981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8270945137582434</v>
+        <v>0.8288734267282237</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -1704,19 +1704,19 @@
         <v>373585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>351251</v>
+        <v>348288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396412</v>
+        <v>395952</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6568497082251677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6175818235205029</v>
+        <v>0.612373134765585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6969859562225756</v>
+        <v>0.6961765385057045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>620</v>
@@ -1725,19 +1725,19 @@
         <v>649530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>620457</v>
+        <v>620502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>677325</v>
+        <v>678386</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7065432664695246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6749186557286682</v>
+        <v>0.6749666464008728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7367774074618019</v>
+        <v>0.7379322756306886</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9263</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4548</v>
+        <v>4561</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16288</v>
+        <v>16175</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03106150949972159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01525293972307023</v>
+        <v>0.01529366628687552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05462200832240478</v>
+        <v>0.05424238342728505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>503</v>
@@ -1850,19 +1850,19 @@
         <v>516122</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>482522</v>
+        <v>480183</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>554801</v>
+        <v>548918</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4133079607723685</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3864011517267349</v>
+        <v>0.38452803518652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4442815895427752</v>
+        <v>0.4395701772996848</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>513</v>
@@ -1871,19 +1871,19 @@
         <v>525385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>487222</v>
+        <v>490017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>561413</v>
+        <v>565175</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3396240427653221</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3149544294604243</v>
+        <v>0.3167610691632617</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3629136975027337</v>
+        <v>0.365345571564432</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>288938</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281913</v>
+        <v>282026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293653</v>
+        <v>293640</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9689384905002784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9453779916775953</v>
+        <v>0.945757616572715</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9847470602769297</v>
+        <v>0.9847063337131244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>735</v>
@@ -1921,19 +1921,19 @@
         <v>732638</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>693959</v>
+        <v>699842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>766238</v>
+        <v>768577</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5866920392276315</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5557184104572247</v>
+        <v>0.5604298227003149</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6135988482732651</v>
+        <v>0.6154719648134799</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1031</v>
@@ -1942,19 +1942,19 @@
         <v>1021575</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>985547</v>
+        <v>981785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1059738</v>
+        <v>1056943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6603759572346779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6370863024972664</v>
+        <v>0.6346544284355666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6850455705395757</v>
+        <v>0.6832389308367377</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>647068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>603708</v>
+        <v>604107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>691661</v>
+        <v>691532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1978685208095168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1846094324200786</v>
+        <v>0.1847314081843768</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2115048441559657</v>
+        <v>0.2114655144025818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1101</v>
@@ -2067,19 +2067,19 @@
         <v>1132361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1080038</v>
+        <v>1082712</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1185585</v>
+        <v>1187433</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3352040893241786</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3197153318813671</v>
+        <v>0.3205068450340632</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3509594975053322</v>
+        <v>0.3515065987956345</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1762</v>
@@ -2088,19 +2088,19 @@
         <v>1779429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1711082</v>
+        <v>1710399</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1849909</v>
+        <v>1847420</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.267651112536254</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2573708795997825</v>
+        <v>0.2572681383461402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.278252387168195</v>
+        <v>0.2778779440827241</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2623122</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2578529</v>
+        <v>2578658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2666482</v>
+        <v>2666083</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8021314791904832</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7884951558440343</v>
+        <v>0.788534485597418</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8153905675799213</v>
+        <v>0.8152685918156225</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2195</v>
@@ -2138,19 +2138,19 @@
         <v>2245763</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2192539</v>
+        <v>2190691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2298086</v>
+        <v>2295412</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6647959106758214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6490405024946677</v>
+        <v>0.6484934012043658</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6802846681186329</v>
+        <v>0.679493154965937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4741</v>
@@ -2159,19 +2159,19 @@
         <v>4868885</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4798405</v>
+        <v>4800894</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4937232</v>
+        <v>4937915</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7323488874637459</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.721747612831805</v>
+        <v>0.7221220559172752</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7426291204002171</v>
+        <v>0.7427318616538596</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>85987</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69920</v>
+        <v>69065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104737</v>
+        <v>104884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1966711011580046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1599216607455462</v>
+        <v>0.1579681637112829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2395579521051886</v>
+        <v>0.2398925305724531</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2526,19 +2526,19 @@
         <v>67679</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53748</v>
+        <v>54370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>83389</v>
+        <v>83595</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2152263132093803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1709245499163497</v>
+        <v>0.1729014873748237</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2651865705582517</v>
+        <v>0.2658427270212038</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -2547,19 +2547,19 @@
         <v>153666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132557</v>
+        <v>130550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178109</v>
+        <v>176032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2044335553183231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.176350678599398</v>
+        <v>0.1736807995775785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2369527129507507</v>
+        <v>0.2341898271882383</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>351224</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332474</v>
+        <v>332327</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>367291</v>
+        <v>368146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8033288988419954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7604420478948115</v>
+        <v>0.7601074694275475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8400783392544539</v>
+        <v>0.8420318362887173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>220</v>
@@ -2597,19 +2597,19 @@
         <v>246775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>231065</v>
+        <v>230859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260706</v>
+        <v>260084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7847736867906197</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7348134294417479</v>
+        <v>0.734157272978796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8290754500836501</v>
+        <v>0.8270985126251761</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>547</v>
@@ -2618,19 +2618,19 @@
         <v>597999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>573556</v>
+        <v>575633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619108</v>
+        <v>621115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7955664446816769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7630472870492493</v>
+        <v>0.7658101728117617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.823649321400602</v>
+        <v>0.8263192004224211</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>85497</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68258</v>
+        <v>69154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103530</v>
+        <v>104778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.204149250273242</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1629861924687436</v>
+        <v>0.1651248022401271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2472090386410866</v>
+        <v>0.2501877752338144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -2743,19 +2743,19 @@
         <v>93371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77195</v>
+        <v>77114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110665</v>
+        <v>110239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2762365919491159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2283792827665234</v>
+        <v>0.228140593810829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3274007424101846</v>
+        <v>0.3261411037590243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>161</v>
@@ -2764,19 +2764,19 @@
         <v>178868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154931</v>
+        <v>153846</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203017</v>
+        <v>204449</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2363454212148344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2047169007739066</v>
+        <v>0.2032828962436702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2682540403014584</v>
+        <v>0.2701468443005434</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>333300</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>315267</v>
+        <v>314019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>350539</v>
+        <v>349643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.795850749726758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7527909613589133</v>
+        <v>0.7498122247661856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8370138075312563</v>
+        <v>0.834875197759873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>220</v>
@@ -2814,19 +2814,19 @@
         <v>244640</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>227346</v>
+        <v>227772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>260816</v>
+        <v>260897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7237634080508841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6725992575898153</v>
+        <v>0.6738588962409757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7716207172334765</v>
+        <v>0.771859406189171</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>519</v>
@@ -2835,19 +2835,19 @@
         <v>577940</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>553791</v>
+        <v>552359</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>601877</v>
+        <v>602962</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7636545787851656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7317459596985416</v>
+        <v>0.7298531556994566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7952830992260934</v>
+        <v>0.7967171037563299</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>191133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168130</v>
+        <v>167997</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216552</v>
+        <v>215736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3036678632411068</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2671217382945132</v>
+        <v>0.2669105375712177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3440521330408471</v>
+        <v>0.3427569978639909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -2960,19 +2960,19 @@
         <v>97606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83229</v>
+        <v>81301</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114939</v>
+        <v>113524</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3752204044146334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3199530591307801</v>
+        <v>0.312540247189836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4418543346027136</v>
+        <v>0.4364157974794421</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -2981,19 +2981,19 @@
         <v>288739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>260207</v>
+        <v>261792</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317688</v>
+        <v>318540</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3245919732628939</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2925167735234147</v>
+        <v>0.2942994892834049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.357136030634823</v>
+        <v>0.3580934991849952</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>438282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412863</v>
+        <v>413679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>461285</v>
+        <v>461418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6963321367588933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6559478669591527</v>
+        <v>0.6572430021360091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7328782617054865</v>
+        <v>0.7330894624287823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -3031,19 +3031,19 @@
         <v>162523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145190</v>
+        <v>146605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176900</v>
+        <v>178828</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6247795955853666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5581456653972864</v>
+        <v>0.563584202520558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6800469408692195</v>
+        <v>0.6874597528101641</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>571</v>
@@ -3052,19 +3052,19 @@
         <v>600805</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>571856</v>
+        <v>571004</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>629337</v>
+        <v>627752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6754080267371061</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6428639693651772</v>
+        <v>0.6419065008150048</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7074832264765855</v>
+        <v>0.705700510716595</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>328898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>296747</v>
+        <v>300109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>358858</v>
+        <v>363804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2837750312625978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2560354616242989</v>
+        <v>0.2589354513482867</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3096251596055757</v>
+        <v>0.3138926888911027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>208</v>
@@ -3177,19 +3177,19 @@
         <v>225354</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>198293</v>
+        <v>201314</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>250309</v>
+        <v>254211</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2939441194727727</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2586460812061596</v>
+        <v>0.2625870384090364</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3264942689617478</v>
+        <v>0.3315843109053656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>512</v>
@@ -3198,19 +3198,19 @@
         <v>554252</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>511833</v>
+        <v>511880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>594485</v>
+        <v>595144</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2878236068498459</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2657952468814067</v>
+        <v>0.2658196491714653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3087165697903684</v>
+        <v>0.3090587716830114</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>830111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>800151</v>
+        <v>795205</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>862262</v>
+        <v>858900</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7162249687374022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6903748403944243</v>
+        <v>0.6861073111088973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7439645383757011</v>
+        <v>0.7410645486517132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>503</v>
@@ -3248,19 +3248,19 @@
         <v>541303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>516348</v>
+        <v>512446</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>568364</v>
+        <v>565343</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7060558805272273</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6735057310382523</v>
+        <v>0.6684156890946347</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7413539187938405</v>
+        <v>0.7374129615909637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1282</v>
@@ -3269,19 +3269,19 @@
         <v>1371415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1331182</v>
+        <v>1330523</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1413834</v>
+        <v>1413787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7121763931501541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6912834302096315</v>
+        <v>0.6909412283169886</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7342047531185931</v>
+        <v>0.7341803508285348</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>122648</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105084</v>
+        <v>101880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>143884</v>
+        <v>143968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2402058016635145</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2058056950686387</v>
+        <v>0.199531323563674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2817955891982323</v>
+        <v>0.2819601120254617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>329</v>
@@ -3394,19 +3394,19 @@
         <v>353787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>326817</v>
+        <v>327606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>383799</v>
+        <v>383631</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4645790466491642</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4291625038761073</v>
+        <v>0.4301993145925316</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5039896358376827</v>
+        <v>0.5037688106579684</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>444</v>
@@ -3415,19 +3415,19 @@
         <v>476435</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>442139</v>
+        <v>443082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>511991</v>
+        <v>512883</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3745212485144684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3475609496758196</v>
+        <v>0.3483027105588594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4024713430529482</v>
+        <v>0.4031725135148573</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>387948</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>366712</v>
+        <v>366628</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>405512</v>
+        <v>408716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7597941983364854</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7182044108017677</v>
+        <v>0.7180398879745384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7941943049313613</v>
+        <v>0.8004686764363259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>374</v>
@@ -3465,19 +3465,19 @@
         <v>407735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>377723</v>
+        <v>377891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>434705</v>
+        <v>433916</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5354209533508358</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4960103641623173</v>
+        <v>0.496231189342031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5708374961238927</v>
+        <v>0.5698006854074683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>746</v>
@@ -3486,19 +3486,19 @@
         <v>795683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>760127</v>
+        <v>759235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>829979</v>
+        <v>829036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6254787514855317</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5975286569470518</v>
+        <v>0.5968274864851427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6524390503241806</v>
+        <v>0.6516972894411407</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>16680</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9620</v>
+        <v>9722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27654</v>
+        <v>27017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06250055496231734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0360456409359047</v>
+        <v>0.03642869505628005</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.103618482161772</v>
+        <v>0.1012325805211272</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>500</v>
@@ -3611,19 +3611,19 @@
         <v>535654</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>505607</v>
+        <v>503362</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>570697</v>
+        <v>566884</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4828538328453058</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.455768194560752</v>
+        <v>0.453744686366143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5144426619677146</v>
+        <v>0.5110051795773664</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>515</v>
@@ -3632,19 +3632,19 @@
         <v>552335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>515526</v>
+        <v>517968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>589072</v>
+        <v>590664</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4013380737704579</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3745923780543422</v>
+        <v>0.3763667365704645</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4280322566015686</v>
+        <v>0.4291888113179844</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>250202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239228</v>
+        <v>239865</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257262</v>
+        <v>257160</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9374994450376827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8963815178382281</v>
+        <v>0.8987674194788721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9639543590640953</v>
+        <v>0.9635713049437198</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>544</v>
@@ -3682,19 +3682,19 @@
         <v>573697</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>538654</v>
+        <v>542467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>603744</v>
+        <v>605989</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5171461671546943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.485557338032285</v>
+        <v>0.4889948204226336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.544231805439248</v>
+        <v>0.5462553136338572</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>794</v>
@@ -3703,19 +3703,19 @@
         <v>823898</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>787161</v>
+        <v>785569</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>860707</v>
+        <v>858265</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5986619262295421</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5719677433984314</v>
+        <v>0.5708111886820159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6254076219456579</v>
+        <v>0.6236332634295355</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>830843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>779663</v>
+        <v>783405</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>883837</v>
+        <v>887952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2428010112635317</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2278445171316401</v>
+        <v>0.2289380517066608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2582876856690428</v>
+        <v>0.2594901944975202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1276</v>
@@ -3828,19 +3828,19 @@
         <v>1373452</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1311823</v>
+        <v>1313368</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1435692</v>
+        <v>1433111</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3868741734825632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3695145888072531</v>
+        <v>0.369949734991606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4044060926982056</v>
+        <v>0.403679015662997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2036</v>
@@ -3849,19 +3849,19 @@
         <v>2204295</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2128924</v>
+        <v>2122221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2288227</v>
+        <v>2280394</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3161623407023741</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3053518526456579</v>
+        <v>0.3043904155269517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3282007577563168</v>
+        <v>0.3270771766378337</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2591067</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2538073</v>
+        <v>2533958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2642247</v>
+        <v>2638505</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7571989887364683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7417123143309566</v>
+        <v>0.7405098055024797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7721554828683591</v>
+        <v>0.7710619482933392</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2014</v>
@@ -3899,19 +3899,19 @@
         <v>2176673</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2114433</v>
+        <v>2117014</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2238302</v>
+        <v>2236757</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6131258265174367</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5955939073017944</v>
+        <v>0.596320984337003</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6304854111927469</v>
+        <v>0.6300502650083938</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4459</v>
@@ -3920,19 +3920,19 @@
         <v>4767740</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4683808</v>
+        <v>4691641</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4843111</v>
+        <v>4849814</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6838376592976259</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6717992422436831</v>
+        <v>0.6729228233621664</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6946481473543421</v>
+        <v>0.6956095844730483</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>98702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80664</v>
+        <v>81125</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117717</v>
+        <v>117971</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2300263439792809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1879881802774772</v>
+        <v>0.1890622790533341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2743404485259164</v>
+        <v>0.2749325715503734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -4287,19 +4287,19 @@
         <v>86262</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70654</v>
+        <v>71591</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105331</v>
+        <v>105937</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2485554485504287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2035806266311526</v>
+        <v>0.2062812665434757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3034994663386183</v>
+        <v>0.305244144090224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -4308,19 +4308,19 @@
         <v>184965</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158226</v>
+        <v>160536</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210067</v>
+        <v>210482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2383116524878039</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.203861500028859</v>
+        <v>0.2068373676573119</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2706531836354728</v>
+        <v>0.2711886253446297</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>330390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311375</v>
+        <v>311121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>348428</v>
+        <v>347967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7699736560207191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7256595514740836</v>
+        <v>0.7250674284496266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8120118197225229</v>
+        <v>0.8109377209466658</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>256</v>
@@ -4358,19 +4358,19 @@
         <v>260793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241724</v>
+        <v>241118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276401</v>
+        <v>275464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7514445514495712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6965005336613816</v>
+        <v>0.6947558559097761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7964193733688475</v>
+        <v>0.7937187334565247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -4379,19 +4379,19 @@
         <v>591182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>566080</v>
+        <v>565665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617921</v>
+        <v>615611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7616883475121961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7293468163645271</v>
+        <v>0.7288113746553703</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7961384999711409</v>
+        <v>0.7931626323426881</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>79859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63514</v>
+        <v>64443</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98001</v>
+        <v>97583</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2117014415982012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1683709748858855</v>
+        <v>0.1708345117710486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.259792115277827</v>
+        <v>0.2586840298167782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -4504,19 +4504,19 @@
         <v>82717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66145</v>
+        <v>67962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100278</v>
+        <v>100803</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2221951678279839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1776777055001729</v>
+        <v>0.1825592735580392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2693678220518236</v>
+        <v>0.2707776906891514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -4525,19 +4525,19 @@
         <v>162577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141444</v>
+        <v>138682</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189518</v>
+        <v>188823</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2169136262394011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1887184356961358</v>
+        <v>0.1850332998237354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2528590676016045</v>
+        <v>0.2519313116318016</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>297368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>279226</v>
+        <v>279644</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313713</v>
+        <v>312784</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7882985584017989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7402078847221729</v>
+        <v>0.7413159701832215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8316290251141143</v>
+        <v>0.8291654882289512</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -4575,19 +4575,19 @@
         <v>289556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>271995</v>
+        <v>271470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>306128</v>
+        <v>304311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7778048321720161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7306321779481757</v>
+        <v>0.7292223093108489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8223222944998266</v>
+        <v>0.817440726441962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>557</v>
@@ -4596,19 +4596,19 @@
         <v>586923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>559982</v>
+        <v>560677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>608056</v>
+        <v>610818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7830863737605989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7471409323983956</v>
+        <v>0.7480686883681987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8112815643038644</v>
+        <v>0.8149667001762646</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>142540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122324</v>
+        <v>121427</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162516</v>
+        <v>163116</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2731110449690752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2343762557030683</v>
+        <v>0.2326568360856098</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.311385342971316</v>
+        <v>0.3125342642787612</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4721,19 +4721,19 @@
         <v>59502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46055</v>
+        <v>47710</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72678</v>
+        <v>73115</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3581798340432147</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2772335746427281</v>
+        <v>0.2871985714053179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.437494163019937</v>
+        <v>0.4401265435817521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -4742,19 +4742,19 @@
         <v>202042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179396</v>
+        <v>179905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>227058</v>
+        <v>226327</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2936504580533145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2607364063882008</v>
+        <v>0.2614764392842081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3300086397626803</v>
+        <v>0.3289462369690583</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>379374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>359398</v>
+        <v>358798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399590</v>
+        <v>400487</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7268889550309248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6886146570286844</v>
+        <v>0.6874657357212389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7656237442969318</v>
+        <v>0.7673431639143903</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -4792,19 +4792,19 @@
         <v>106621</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93445</v>
+        <v>93008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>120068</v>
+        <v>118413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6418201659567853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5625058369800626</v>
+        <v>0.5598734564182479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7227664253572719</v>
+        <v>0.7128014285946821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>463</v>
@@ -4813,19 +4813,19 @@
         <v>485994</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>460978</v>
+        <v>461709</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>508640</v>
+        <v>508131</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7063495419466855</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6699913602373199</v>
+        <v>0.671053763030942</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7392635936117991</v>
+        <v>0.7385235607157919</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>293463</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>264713</v>
+        <v>265010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>323427</v>
+        <v>323491</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2552656596349705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2302574621542165</v>
+        <v>0.2305158324787934</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2813298581524303</v>
+        <v>0.2813848903291187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -4938,19 +4938,19 @@
         <v>235998</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>210604</v>
+        <v>208846</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>265336</v>
+        <v>261044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2857547201210081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2550064836127909</v>
+        <v>0.2528786513021525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3212779421376711</v>
+        <v>0.3160815980485685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -4959,19 +4959,19 @@
         <v>529461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>490859</v>
+        <v>491802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>570446</v>
+        <v>568072</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2680117986539419</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2484713427803068</v>
+        <v>0.2489487378502146</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2887584333665227</v>
+        <v>0.2875564170773504</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>856175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>826211</v>
+        <v>826147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>884925</v>
+        <v>884628</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7447343403650295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7186701418475697</v>
+        <v>0.7186151096708814</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7697425378457837</v>
+        <v>0.7694841675212066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>582</v>
@@ -5009,19 +5009,19 @@
         <v>589878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>560540</v>
+        <v>564832</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>615272</v>
+        <v>617030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7142452798789919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6787220578623291</v>
+        <v>0.6839184019514317</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7449935163872095</v>
+        <v>0.7471213486978479</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1393</v>
@@ -5030,19 +5030,19 @@
         <v>1446053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1405068</v>
+        <v>1407442</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1484655</v>
+        <v>1483712</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7319882013460581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7112415666334773</v>
+        <v>0.7124435829226493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7515286572196932</v>
+        <v>0.7510512621497852</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>179848</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158115</v>
+        <v>157509</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202977</v>
+        <v>204030</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2897467480322351</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.25473471971112</v>
+        <v>0.2537585026057486</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3270096357307258</v>
+        <v>0.3287068759430803</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>309</v>
@@ -5155,19 +5155,19 @@
         <v>338485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>313844</v>
+        <v>311569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>366505</v>
+        <v>366974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4584999395651235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4251218249974015</v>
+        <v>0.4220406080672307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4964553236709693</v>
+        <v>0.4970904052955318</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>492</v>
@@ -5176,19 +5176,19 @@
         <v>518332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>482946</v>
+        <v>481172</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>553371</v>
+        <v>554234</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3814212408756932</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3553819140105873</v>
+        <v>0.3540762674442133</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4072047094555966</v>
+        <v>0.4078396781318434</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>440858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417729</v>
+        <v>416676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462591</v>
+        <v>463197</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7102532519677649</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6729903642692742</v>
+        <v>0.6712931240569194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7452652802888801</v>
+        <v>0.7462414973942514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>390</v>
@@ -5226,19 +5226,19 @@
         <v>399759</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371739</v>
+        <v>371270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>424400</v>
+        <v>426675</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5415000604348764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5035446763290307</v>
+        <v>0.5029095947044682</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5748781750025985</v>
+        <v>0.5779593919327694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>804</v>
@@ -5247,19 +5247,19 @@
         <v>840618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>805579</v>
+        <v>804716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>876004</v>
+        <v>877778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6185787591243068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5927952905444034</v>
+        <v>0.5921603218681563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6446180859894127</v>
+        <v>0.6459237325557864</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>15195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9067</v>
+        <v>8912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24237</v>
+        <v>23723</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05291841313242938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03157767288368426</v>
+        <v>0.03103754330175047</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08440664998476637</v>
+        <v>0.08261508566777485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>405</v>
@@ -5372,19 +5372,19 @@
         <v>469227</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>435061</v>
+        <v>434606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>504184</v>
+        <v>506009</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4336564186782138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4020799805009219</v>
+        <v>0.4016594887931147</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4659628970520178</v>
+        <v>0.46764981038603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>420</v>
@@ -5393,19 +5393,19 @@
         <v>484422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>447920</v>
+        <v>447037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>520291</v>
+        <v>525235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3538072613282278</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3271470652588847</v>
+        <v>0.3265020832703281</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3800045028101861</v>
+        <v>0.3836159023697297</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>271950</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262908</v>
+        <v>263422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>278078</v>
+        <v>278233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9470815868675706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9155933500152337</v>
+        <v>0.9173849143322252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9684223271163157</v>
+        <v>0.9689624566982495</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>587</v>
@@ -5443,19 +5443,19 @@
         <v>612798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>577841</v>
+        <v>576016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>646964</v>
+        <v>647419</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5663435813217862</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.534037102947982</v>
+        <v>0.5323501896139698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5979200194990779</v>
+        <v>0.5983405112068853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>844</v>
@@ -5464,19 +5464,19 @@
         <v>884748</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>848879</v>
+        <v>843935</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>921250</v>
+        <v>922133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6461927386717722</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6199954971898139</v>
+        <v>0.6163840976302705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6728529347411153</v>
+        <v>0.6734979167296719</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>809608</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>759978</v>
+        <v>765060</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>859744</v>
+        <v>863065</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2391242721364773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2244654793121788</v>
+        <v>0.2259666786577149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2539323699508053</v>
+        <v>0.2549131750886579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1130</v>
@@ -5589,19 +5589,19 @@
         <v>1272191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1220524</v>
+        <v>1217018</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1333830</v>
+        <v>1327203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3602313027718659</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.345601111074722</v>
+        <v>0.3446083997596418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3776848886882254</v>
+        <v>0.3758081365115677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1927</v>
@@ -5610,19 +5610,19 @@
         <v>2081800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2002362</v>
+        <v>1996536</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2162514</v>
+        <v>2155367</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3009547513309681</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2894708811727061</v>
+        <v>0.2886286102928252</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3126231698932173</v>
+        <v>0.3115899786425346</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2576114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2525978</v>
+        <v>2522657</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2625744</v>
+        <v>2620662</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7608757278635226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7460676300491947</v>
+        <v>0.7450868249113421</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7755345206878212</v>
+        <v>0.7740333213422851</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2196</v>
@@ -5660,19 +5660,19 @@
         <v>2259405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2197766</v>
+        <v>2204393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2311072</v>
+        <v>2314578</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6397686972281341</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6223151113117745</v>
+        <v>0.6241918634884321</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.654398888925278</v>
+        <v>0.6553916002403581</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4623</v>
@@ -5681,19 +5681,19 @@
         <v>4835518</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4754804</v>
+        <v>4761951</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4914956</v>
+        <v>4920782</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6990452486690319</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6873768301067826</v>
+        <v>0.6884100213574654</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7105291188272939</v>
+        <v>0.7113713897071754</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>168073</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147030</v>
+        <v>147867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>188469</v>
+        <v>191152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3052434039348393</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2670268071905008</v>
+        <v>0.268546919252998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3422858981215486</v>
+        <v>0.3471588475097133</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -6048,19 +6048,19 @@
         <v>194032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175406</v>
+        <v>175165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213338</v>
+        <v>212880</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3972713281551203</v>
+        <v>0.3972713281551202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3591363478973998</v>
+        <v>0.3586432397256719</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4367994686505458</v>
+        <v>0.4358615950695598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>485</v>
@@ -6069,19 +6069,19 @@
         <v>362104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>335434</v>
+        <v>334345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>392716</v>
+        <v>390156</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3485024789099067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3228345512213563</v>
+        <v>0.3217860347148322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3779643504438046</v>
+        <v>0.375500464106924</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>382545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>362149</v>
+        <v>359466</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403588</v>
+        <v>402751</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6947565960651606</v>
+        <v>0.6947565960651607</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6577141018784513</v>
+        <v>0.6528411524902863</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7329731928094991</v>
+        <v>0.731453080747002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>398</v>
@@ -6119,19 +6119,19 @@
         <v>294379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275073</v>
+        <v>275531</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313005</v>
+        <v>313246</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6027286718448799</v>
+        <v>0.6027286718448797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5632005313494542</v>
+        <v>0.5641384049304402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6408636521026002</v>
+        <v>0.6413567602743282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>755</v>
@@ -6140,19 +6140,19 @@
         <v>676925</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>646313</v>
+        <v>648873</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>703595</v>
+        <v>704684</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6514975210900934</v>
+        <v>0.6514975210900933</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6220356495561954</v>
+        <v>0.6244995358930762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6771654487786438</v>
+        <v>0.6782139652851678</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>158700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138201</v>
+        <v>138306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>179041</v>
+        <v>181447</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3284263078677612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2860058930111851</v>
+        <v>0.2862226455023351</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3705236662899909</v>
+        <v>0.3755022902545915</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>259</v>
@@ -6265,19 +6265,19 @@
         <v>172828</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>156823</v>
+        <v>155163</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>192279</v>
+        <v>191901</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4084386507659747</v>
+        <v>0.4084386507659746</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.370615599554535</v>
+        <v>0.3666915899400709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4544059991214212</v>
+        <v>0.4535138773625699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>444</v>
@@ -6286,19 +6286,19 @@
         <v>331527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>303595</v>
+        <v>306916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>356622</v>
+        <v>358749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3657810431536037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3349630128690684</v>
+        <v>0.3386271294103372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3934685459823716</v>
+        <v>0.3958150400388313</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>324512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>304171</v>
+        <v>301765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345011</v>
+        <v>344906</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6715736921322387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6294763337100092</v>
+        <v>0.6244977097454086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.713994106988815</v>
+        <v>0.7137773544976653</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>331</v>
@@ -6336,19 +6336,19 @@
         <v>250315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>230864</v>
+        <v>231242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266320</v>
+        <v>267980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5915613492340253</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5455940008785789</v>
+        <v>0.5464861226374301</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6293844004454651</v>
+        <v>0.633308410059929</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -6357,19 +6357,19 @@
         <v>574828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>549733</v>
+        <v>547606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>602760</v>
+        <v>599439</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6342189568463964</v>
+        <v>0.6342189568463963</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6065314540176284</v>
+        <v>0.6041849599611685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6650369871309317</v>
+        <v>0.6613728705896627</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>167344</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148022</v>
+        <v>148367</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188954</v>
+        <v>189202</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3548345623285972</v>
+        <v>0.3548345623285971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3138648547239047</v>
+        <v>0.3145956175878219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4006564488084371</v>
+        <v>0.4011822986958075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -6482,19 +6482,19 @@
         <v>103727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91834</v>
+        <v>92580</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>114769</v>
+        <v>114557</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5532198880291754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4897909586132093</v>
+        <v>0.4937657406377718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6121113172875562</v>
+        <v>0.6109780335270134</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>373</v>
@@ -6503,19 +6503,19 @@
         <v>271071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>246838</v>
+        <v>247853</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295118</v>
+        <v>295656</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4112694007900965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3745020655409071</v>
+        <v>0.3760422720227424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4477523770499915</v>
+        <v>0.4485698929165716</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>304268</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282658</v>
+        <v>282410</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323590</v>
+        <v>323245</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6451654376714029</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5993435511915629</v>
+        <v>0.5988177013041922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6861351452760952</v>
+        <v>0.685404382412178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -6553,19 +6553,19 @@
         <v>83770</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72728</v>
+        <v>72940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95663</v>
+        <v>94917</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4467801119708246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3878886827124438</v>
+        <v>0.3890219664729866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5102090413867908</v>
+        <v>0.5062342593622282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>404</v>
@@ -6574,19 +6574,19 @@
         <v>388038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>363991</v>
+        <v>363453</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>412271</v>
+        <v>411256</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5887305992099036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5522476229500085</v>
+        <v>0.5514301070834284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6254979344590927</v>
+        <v>0.6239577279772576</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>392836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>358053</v>
+        <v>362506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>424032</v>
+        <v>426907</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3470767285577867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3163453626835537</v>
+        <v>0.320279717988853</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3746388309665214</v>
+        <v>0.3771789206214383</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>582</v>
@@ -6699,19 +6699,19 @@
         <v>366276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>340395</v>
+        <v>341494</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>391166</v>
+        <v>392234</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4253029769508724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3952514879521487</v>
+        <v>0.3965279436392035</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4542046124396772</v>
+        <v>0.4554448289656608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1052</v>
@@ -6720,19 +6720,19 @@
         <v>759112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>718082</v>
+        <v>715430</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>799552</v>
+        <v>800687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3808787888789543</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3602924526361982</v>
+        <v>0.3589617794968187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4011693921266551</v>
+        <v>0.4017387756289325</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>739007</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>707811</v>
+        <v>704936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>773790</v>
+        <v>769337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6529232714422133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6253611690334785</v>
+        <v>0.6228210793785619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6836546373164465</v>
+        <v>0.679720282011147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>648</v>
@@ -6770,19 +6770,19 @@
         <v>494935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>470045</v>
+        <v>468977</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>520816</v>
+        <v>519717</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5746970230491276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5457953875603229</v>
+        <v>0.5445551710343393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6047485120478514</v>
+        <v>0.6034720563607961</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1296</v>
@@ -6791,19 +6791,19 @@
         <v>1233942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1193502</v>
+        <v>1192367</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1274972</v>
+        <v>1277624</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6191212111210457</v>
+        <v>0.6191212111210458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.598830607873345</v>
+        <v>0.5982612243710675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6397075473638019</v>
+        <v>0.6410382205031815</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>190486</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>168943</v>
+        <v>168143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>215473</v>
+        <v>213953</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3353830989487211</v>
+        <v>0.335383098948721</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2974545156863485</v>
+        <v>0.2960447609911841</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3793773479014245</v>
+        <v>0.3767023492225459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>768</v>
@@ -6916,19 +6916,19 @@
         <v>450918</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>426268</v>
+        <v>424981</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>475004</v>
+        <v>473950</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5427185905536782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5130502175935574</v>
+        <v>0.5115017026962079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5717081389303743</v>
+        <v>0.5704397131826542</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>986</v>
@@ -6937,19 +6937,19 @@
         <v>641403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>605316</v>
+        <v>606987</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>675296</v>
+        <v>677793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4585336714704074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4327348033332061</v>
+        <v>0.4339294638913544</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.482763203673208</v>
+        <v>0.484548021569607</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>377478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>352491</v>
+        <v>354011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>399021</v>
+        <v>399821</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6646169010512789</v>
+        <v>0.6646169010512788</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6206226520985755</v>
+        <v>0.6232976507774541</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7025454843136514</v>
+        <v>0.7039552390088158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -6987,19 +6987,19 @@
         <v>379932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>355846</v>
+        <v>356900</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>404582</v>
+        <v>405869</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4572814094463218</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4282918610696258</v>
+        <v>0.4295602868173456</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4869497824064425</v>
+        <v>0.4884982973037921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>851</v>
@@ -7008,19 +7008,19 @@
         <v>757411</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>723518</v>
+        <v>721021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>793498</v>
+        <v>791827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5414663285295926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.517236796326792</v>
+        <v>0.515451978430393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.567265196666794</v>
+        <v>0.5660705361086454</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>37695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23774</v>
+        <v>22673</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58864</v>
+        <v>57748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1588967249400734</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1002157016575751</v>
+        <v>0.09557642268201903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2481320103422739</v>
+        <v>0.2434277144750782</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>650</v>
@@ -7133,19 +7133,19 @@
         <v>392527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>362864</v>
+        <v>365215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>418915</v>
+        <v>419516</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4649244794884972</v>
+        <v>0.4649244794884971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.429790344326817</v>
+        <v>0.4325755641252623</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.49617930903743</v>
+        <v>0.496891271073434</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>673</v>
@@ -7154,19 +7154,19 @@
         <v>430222</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>396824</v>
+        <v>396296</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>465424</v>
+        <v>465692</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3977976291665296</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3669167680922188</v>
+        <v>0.3664289308649469</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4303468241716387</v>
+        <v>0.4305944517717349</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>199533</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178364</v>
+        <v>179480</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213454</v>
+        <v>214555</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8411032750599267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7518679896577272</v>
+        <v>0.7565722855249217</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8997842983424249</v>
+        <v>0.9044235773179807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>509</v>
@@ -7204,19 +7204,19 @@
         <v>451754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>425366</v>
+        <v>424765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>481417</v>
+        <v>479066</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5350755205115029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.50382069096257</v>
+        <v>0.503108728926566</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5702096556731829</v>
+        <v>0.5674244358747378</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -7225,19 +7225,19 @@
         <v>651287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>616085</v>
+        <v>615817</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>684685</v>
+        <v>685213</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6022023708334705</v>
+        <v>0.6022023708334706</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5696531758283612</v>
+        <v>0.5694055482282652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6330832319077815</v>
+        <v>0.6335710691350531</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1115133</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1055638</v>
+        <v>1057220</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1176383</v>
+        <v>1173206</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3239333053714462</v>
+        <v>0.3239333053714463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3066507251543283</v>
+        <v>0.3071104563489237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.341725941025389</v>
+        <v>0.340802976323669</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2716</v>
@@ -7350,19 +7350,19 @@
         <v>1680307</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1627868</v>
+        <v>1626696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1727157</v>
+        <v>1735736</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4622077982795678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4477833333053775</v>
+        <v>0.4474607149803623</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4750950547182726</v>
+        <v>0.4774547738826022</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4013</v>
@@ -7371,19 +7371,19 @@
         <v>2795440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2713183</v>
+        <v>2723970</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2874446</v>
+        <v>2879811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3949549837864667</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3833333657935712</v>
+        <v>0.384857312834263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4061174802245037</v>
+        <v>0.4068753779774046</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2327343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2266093</v>
+        <v>2269270</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2386838</v>
+        <v>2385256</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6760666946285537</v>
+        <v>0.676066694628554</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6582740589746109</v>
+        <v>0.6591970236763309</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6933492748456715</v>
+        <v>0.6928895436510761</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2528</v>
@@ -7421,19 +7421,19 @@
         <v>1955086</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1908236</v>
+        <v>1899657</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2007525</v>
+        <v>2008697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5377922017204323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5249049452817275</v>
+        <v>0.5225452261173978</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5522166666946225</v>
+        <v>0.5525392850196379</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4531</v>
@@ -7442,19 +7442,19 @@
         <v>4282429</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4203423</v>
+        <v>4198058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4364686</v>
+        <v>4353899</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6050450162135332</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5938825197754956</v>
+        <v>0.5931246220225956</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6166666342064288</v>
+        <v>0.6151426871657369</v>
       </c>
     </row>
     <row r="24">
